--- a/pred_ohlcv/54_21/2020-01-26 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6355.23269313052</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>6355.23269313052</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6355.23269313052</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6331.09729313052</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>6331.09729313052</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6331.09729313052</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>6344.115593130519</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>6315.503993130519</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>6315.503993130519</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>6082.261693130519</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6082.261693130519</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6092.121193130519</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>6113.175093130519</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>6113.175093130519</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5593.640993130519</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5601.223493130519</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>5426.03799313052</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>5426.03799313052</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5413.90419313052</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5415.88119313052</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5415.88119313052</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5389.70659313052</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5390.70659313052</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5500.70659313052</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>5953.14719313052</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>5952.15619313052</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>5951.15619313052</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5626.974593130519</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5508.171593130519</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5508.171593130519</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>6040.79085070024</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>6277.55525070024</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>6473.43515070024</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>6753.44355070024</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>6659.66535070024</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>6821.66535070024</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>6817.67215070024</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>6138.513650700241</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5345.21125070024</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>5370.77425070024</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5205.96845070024</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5205.96845070024</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5173.27715070024</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5173.27715070024</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4961.28135070024</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5067.00845070024</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>5057.76215070024</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5057.76215070024</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4986.867550700241</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>4992.427850700241</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5349.817550700241</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5349.817550700241</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5333.34525070024</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>5344.529350700241</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>5268.462550700241</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>5268.462550700241</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5561.357150700241</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5556.946650700241</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>5556.946650700241</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>5883.573150700241</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>6437.459650700241</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7170.459650700241</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7125.33405070024</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>7125.33405070024</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>7125.38785070024</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>7125.07025070024</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>7373.64015070024</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>7371.50195070024</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>7372.670350700239</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>7366.170350700239</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>7366.170350700239</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>7366.170350700239</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>7515.768350700239</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>7425.768350700239</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>7518.366650700239</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>7518.366650700239</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>7518.366650700239</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>6716.711250700239</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>6807.416750700239</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>6807.416750700239</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>6807.416750700239</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>6833.724550700239</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>6833.724550700239</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>7050.003350700239</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>7050.003350700239</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>7045.433350700239</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>6320.003350700239</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>6320.003350700239</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>5360.693550700239</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>6883.940250700239</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-24755.9614234373</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-24953.56722343731</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-24938.04042343731</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-24793.41902013152</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-24782.94412013152</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-24977.98012013152</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-24977.98012013152</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-24977.98012013152</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-25056.21852013152</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-25056.21852013152</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-25377.31602013152</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-25277.31602013152</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-25277.31602013152</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-25224.94552013152</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-23635.69262013152</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-23090.15342013152</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-23136.85522013152</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-22965.24592013152</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-25160.3336360108</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-25160.2716360108</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-25202.3825360108</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-25125.1429360108</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-25165.1429360108</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-25016.0375360108</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-24803.4222360108</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-23941.10776163868</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-24108.46336163868</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-24108.46336163868</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-23985.52156163868</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-23984.53166163868</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-24070.84196163868</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-24711.20176163868</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-22992.68336163868</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-22416.26536163868</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-22365.52746163868</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-22403.60016163868</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-22741.55156163868</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-22516.61702252373</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-22437.81392252373</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-22646.13562252373</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-22727.69112252373</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-23237.65732252373</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-23240.99912252372</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-24878.44522252373</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-27126.72142252373</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-27126.36522252373</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-27234.58741767587</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-27261.77061767587</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-27218.85951767586</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-26725.94291767586</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-27183.77621767586</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-27111.05571767586</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-28301.77491767586</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-28295.67341767586</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-27662.14471767586</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-27761.20881767586</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-27769.77341767586</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-27646.44261767586</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-27652.59571767586</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-27652.26091767586</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-27799.87531767586</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-27798.28671767586</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-27798.28671767586</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-27712.86011602468</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-27190.30976060608</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-26119.39676060608</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-26997.39166060608</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-26997.39166060608</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-26997.39166060608</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-26997.39166060608</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-26997.39166060608</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-26997.39166060608</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-27009.66166060608</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-27009.55946060608</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-27086.03326060608</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-27210.04606060608</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-27035.21746060608</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-27094.05826060608</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-27195.43936060608</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-27195.43936060608</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-27165.59456060608</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-27239.65766060608</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-27239.65766060608</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-27239.48696060608</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-27297.44426060608</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-27308.16026060608</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-27308.16026060608</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-27462.96316060608</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-27469.08376060608</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-27304.31966060608</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-27305.52216060608</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-27284.63526060608</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-27291.64606060608</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-27291.64606060608</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-27464.03456060608</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-27474.54826060608</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-27474.54826060608</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-27121.53546060608</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-27124.25216060608</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-27123.29126060608</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-27123.29126060608</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-27129.39506060608</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-26837.20476060608</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-26707.05066060608</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-26445.05066060608</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-25199.87696060608</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-25226.31326060608</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-25235.50866060608</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-25275.50866060608</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-25251.35546060608</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-25252.55546060608</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-25252.55546060608</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-25162.84706060608</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-24899.41656060609</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-24883.07086060608</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-35398.28976060609</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-35398.28976060609</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-31923.16376060609</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-32694.53486060609</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-32830.51196060608</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-33107.58246060609</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-33074.20596060609</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-33069.94936060609</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-33069.94936060609</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-32799.72896060609</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-32877.11206060609</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-32721.42756060609</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-32721.42756060609</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-32949.06696060608</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-32960.14296060608</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-32876.49296060608</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-31985.35836060609</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-32205.88796060609</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-32262.04366060609</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-32280.35976060609</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-32242.18956060609</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-32379.76746060609</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-32288.98306060609</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-32277.84726060609</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-32267.56316060609</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-32336.22475118174</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-32378.19085118174</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-32367.13885118174</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-32367.13885118174</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-31768.13885118174</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-31802.11885118174</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-31777.04865118174</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-31826.76255118174</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-31824.73815118174</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-31873.96215118174</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-31914.36555118174</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-32164.36555118174</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-32154.36555118174</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-32158.81935118174</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-31927.89555118174</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-31854.77195118174</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-31884.77195118174</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-32690.85415118173</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-32690.85415118173</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-31891.81235118174</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-31882.06385118173</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-31882.06385118173</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-31884.48835118174</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-31884.48835118174</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-31506.72600246689</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-31535.94680246689</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-31569.31040246688</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6355.23269313052</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>6355.23269313052</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6355.23269313052</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6331.09729313052</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>6331.09729313052</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6331.09729313052</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>6344.115593130519</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>6315.503993130519</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>6315.503993130519</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>6082.261693130519</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6082.261693130519</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>6113.175093130519</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5593.640993130519</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5601.223493130519</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>6659.66535070024</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-23941.10776163868</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-24108.46336163868</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-22416.26536163868</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-22365.52746163868</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-22403.60016163868</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-22741.55156163868</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-22516.61702252373</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-22437.81392252373</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-22646.13562252373</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-22727.69112252373</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-23237.65732252373</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-23240.99912252372</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-27009.55946060608</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-27086.03326060608</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-27210.04606060608</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-27035.21746060608</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-27094.05826060608</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-27195.43936060608</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-27195.43936060608</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-27165.59456060608</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-27239.65766060608</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-27239.65766060608</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-27239.48696060608</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-27297.44426060608</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-27308.16026060608</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-27308.16026060608</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-27462.96316060608</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-27469.08376060608</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-27652.48456060608</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-27304.31966060608</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-27305.52216060608</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-27284.63526060608</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-27291.64606060608</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-27291.64606060608</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-27464.03456060608</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-27474.54826060608</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-27474.54826060608</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-27121.53546060608</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-27123.29126060608</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-26445.05066060608</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-25199.87696060608</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-25226.31326060608</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-25235.50866060608</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-25275.50866060608</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-25251.35546060608</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-25252.55546060608</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-25252.55546060608</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-25162.84706060608</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-24899.41656060609</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-24883.07086060608</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-32362.68406060609</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-32293.77236060609</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-32418.96706060609</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-32418.96706060609</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-32439.80676060609</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-32641.26386060609</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-32619.86536060609</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-32642.82496060609</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-32634.06936060608</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-32634.06936060608</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-32634.06936060608</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-33052.69386060609</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-34418.46256060609</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-34458.46256060609</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-34513.96256060609</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-34713.96256060609</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-35317.44106060608</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-35317.44106060608</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-35398.28976060609</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-35398.28976060609</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-31923.16376060609</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-31873.97306060609</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-32697.13206060609</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-32697.13206060609</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-32694.53486060609</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-32694.53486060609</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-33108.58246060609</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-33069.94936060609</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-33069.94936060609</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-32721.42756060609</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-32721.42756060609</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-32949.06696060608</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-32920.14296060608</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-32855.12966060609</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-32764.96076060609</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-32828.71366060609</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-32876.32866060609</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-32876.32866060609</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-33076.32866060609</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-33076.32866060609</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-33066.43236060609</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-31973.75186060609</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-31985.35836060609</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-32205.88796060609</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-32262.04366060609</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-32280.35976060609</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-32242.18956060609</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-32379.76746060609</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-32288.98306060609</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-32277.84726060609</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-32267.56316060609</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-32336.22475118174</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-32378.19085118174</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-32367.13885118174</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-32367.13885118174</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-31768.13885118174</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-31802.11885118174</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-31777.04865118174</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-31826.76255118174</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-31824.73815118174</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-31873.96215118174</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-31914.36555118174</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-32164.36555118174</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-32154.36555118174</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-32158.81935118174</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-31927.89555118174</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-31854.77195118174</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-31884.77195118174</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-32690.85415118173</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-32690.85415118173</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-31891.81235118174</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-31882.06385118173</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-31882.06385118173</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-31884.48835118174</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-31506.72600246689</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-31532.52390246688</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-31532.52390246688</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-31603.61840246688</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
